--- a/sites.xlsx
+++ b/sites.xlsx
@@ -34,7 +34,7 @@
     <t>Personal Advancement</t>
   </si>
   <si>
-    <t>https://danmaxwel22.github.io/gcb-house/personal-advancement/</t>
+    <t>https://gcb-ops.github.io/gcb-house/personal-advancement/</t>
   </si>
   <si>
     <t>https://s13.gifyu.com/images/Sj6Zx.png</t>
@@ -227,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,12 +245,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -282,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -299,14 +293,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -632,12 +623,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="33.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="76.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="62.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="76.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="62.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -671,7 +662,7 @@
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3"/>
@@ -689,7 +680,7 @@
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3"/>
@@ -707,7 +698,7 @@
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3"/>
@@ -725,7 +716,7 @@
       <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="3"/>
@@ -743,7 +734,7 @@
       <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3"/>
@@ -761,7 +752,7 @@
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3"/>
@@ -779,7 +770,7 @@
       <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="3"/>
@@ -797,7 +788,7 @@
       <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="3"/>
@@ -815,7 +806,7 @@
       <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="3"/>
@@ -833,12 +824,12 @@
       <c r="D11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="133.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="141" customFormat="1" s="1">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -851,12 +842,12 @@
       <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="95.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="100.5" customFormat="1" s="1">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -869,12 +860,12 @@
       <c r="D13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="133.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="154.5" customFormat="1" s="1">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -887,43 +878,43 @@
       <c r="D14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="181.5" customFormat="1" s="1">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="168" customFormat="1" s="1">
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="3"/>
@@ -931,25 +922,25 @@
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="3"/>
     </row>
   </sheetData>

--- a/sites.xlsx
+++ b/sites.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoCra\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E5E07-9D82-4C0B-A02C-193F1294A119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>Website Name</t>
   </si>
@@ -218,12 +224,24 @@
   </si>
   <si>
     <t>Canva is a versatile graphic design platform catering to users, including web and WordPress developers, web designers, and SEO professionals. With an intuitive interface and a vast library of templates, Canva empowers users to effortlessly create stunning visuals, from social media graphics to presentations and marketing materials. It offers a user-friendly drag-and-drop editor, enabling easy customization of designs without the need for advanced design skills. Canva's extensive collection of images, icons, and fonts facilitates creativity, while collaborative features allow teams to work seamlessly on projects. Whether designing a website banner, social media post, or an infographic for SEO purposes, Canva provides a one-stop solution for visually appealing and professional-looking designs.</t>
+  </si>
+  <si>
+    <t>https://www.blackbox.ai/</t>
+  </si>
+  <si>
+    <t>Blackbox Ai</t>
+  </si>
+  <si>
+    <t>Enhance your coding experience with our powerful AI assistant tool and AI Code Chat - the ultimate companion for programmers. With intelligent suggestions, code completion, and error detection, our tool accelerates software development. With Blackbox you get coding support, AI, intelligent automation, error detection, code completion, and programming efficiency to optimize productivity and streamline your coding workflow.</t>
+  </si>
+  <si>
+    <t>https://s13.gifyu.com/images/S08Tb.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
@@ -277,55 +295,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table4" name="Table4" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:D14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D14" totalsRowShown="0">
+  <autoFilter ref="A1:D14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn name="Website Name" id="1"/>
-    <tableColumn name="Website Link" id="2"/>
-    <tableColumn name="Banner Image Link" id="3"/>
-    <tableColumn name="Site Description" id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Website Link"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Banner Image Link"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Site Description"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -334,10 +355,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -375,71 +396,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,7 +488,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -490,11 +511,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -503,13 +524,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -519,7 +540,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -528,7 +549,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -537,7 +558,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -545,10 +566,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -613,25 +634,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="33.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="76.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="62.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="33.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -649,7 +672,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87" customFormat="1" s="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -667,7 +690,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="127.5" customFormat="1" s="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -685,7 +708,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="114" customFormat="1" s="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -703,7 +726,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="141" customFormat="1" s="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -721,7 +744,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="181.5" customFormat="1" s="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -739,7 +762,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="159" customFormat="1" s="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -757,7 +780,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="133.5" customFormat="1" s="1">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -775,7 +798,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="95.25" customFormat="1" s="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -793,7 +816,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="108" customFormat="1" s="1">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -811,7 +834,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="120.75" customFormat="1" s="1">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -829,7 +852,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="141" customFormat="1" s="1">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -847,7 +870,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="100.5" customFormat="1" s="1">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -865,7 +888,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="154.5" customFormat="1" s="1">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -883,7 +906,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="181.5" customFormat="1" s="1">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
@@ -901,7 +924,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="168" customFormat="1" s="1">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
@@ -919,15 +942,25 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5"/>
@@ -935,7 +968,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5"/>

--- a/sites.xlsx
+++ b/sites.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoCra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E5E07-9D82-4C0B-A02C-193F1294A119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06865319-5A43-4280-8E79-1BE7C01174F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Website Name</t>
   </si>
@@ -43,9 +43,6 @@
     <t>https://gcb-ops.github.io/gcb-house/personal-advancement/</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj6Zx.png</t>
-  </si>
-  <si>
     <t>Embark on a seamless journey through your personal advancement progress! Effortlessly monitor functionality, design, and additional features with user-friendly graphs that provide a vivid visual representation of your advancement. This platform ensures smooth exploration of your development, offering clarity and insights into your path of improvement.</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>https://chat.openai.com/chat</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj6vs.png</t>
-  </si>
-  <si>
     <t>ChatGPT is a versatile conversational agent designed for diverse user support. Whether retrieving information, solving problems, or engaging in conversation, it offers a valuable experience. With advanced natural language processing, it comprehends user input, generating human-like responses. This makes ChatGPT a helpful companion for information retrieval, brainstorming solutions, and engaging interactions across a wide range of topics. Its adaptability and understanding contribute to a seamless and enriching user experience, showcasing its utility as a multifaceted conversational tool.</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>https://www.lingoblocks.com/playground/gOwokDW2uFpJ2s1wtOzO</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj6mY.png</t>
-  </si>
-  <si>
     <t>It's an AI-powered knowledge assistant, tailor-made for professionals and educators—be it university professors, team leaders, or experts like you. It's for anyone passionate about disseminating information in an intelligent, impactful way. Lingo Blocks gives you the autonomy you crave to experiment, to mold, and to perfect your AI assistant. Whether you're looking to tackle complex issues, create a unique customer experience, or empower your team, this platform has got you covered. Note: Set to Wordpress Expert.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>https://sitecheck.sucuri.net/</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj6k8.png</t>
-  </si>
-  <si>
     <t>Sucuri serves as a robust website security platform, dedicated to fortifying websites against cyber threats. Offering malware detection and removal, a Web Application Firewall (WAF) for preemptive threat filtration, continuous security monitoring, and DDoS protection, Sucuri aims to maintain a clean and secure online environment. With a focus on security hardening through best practices and incident response capabilities in case of breaches, Sucuri provides a comprehensive solution to enhance the overall security posture of websites, ensuring they remain resilient and protected against a diverse range of online vulnerabilities and attacks.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>https://web.archive.org/</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj6vO.png</t>
-  </si>
-  <si>
     <t>The Web Archive, often referred to simply as the Internet Archive, is a nonprofit digital library that aims to preserve and provide access to historical versions of websites, web pages, multimedia content, and other digital artifacts. The primary purpose of the Internet Archive is to capture and archive the evolving nature of the web, allowing users to explore past iterations of websites and access content that may no longer be available on the live web. It serves as a valuable resource for researchers, historians, and the general public interested in studying the evolution of the internet, digital culture, and the historical context of online content. The Internet Archive's Wayback Machine, one of its prominent tools, enables users to view snapshots of websites at different points in time, contributing to the preservation of the internet's cultural heritage.</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>https://app.grammarly.com/</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj6mC.png</t>
-  </si>
-  <si>
     <t>Grammarly is an AI-powered writing assistant designed to enhance and improve written communication. Its primary purpose is to help users with grammar, spelling, and punctuation errors, as well as provide suggestions for improving clarity, style, and tone in written content. Grammarly operates as a browser extension, desktop application, and online platform, seamlessly integrating into various writing environments, including emails, documents, and social media. It is widely used by professionals, students, and anyone who wants to ensure the accuracy and effectiveness of their written communication. Grammarly not only corrects mistakes but also offers insights into writing style, vocabulary, and overall writing proficiency, making it a valuable tool for individuals seeking to refine and elevate their writing skills across diverse contexts.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>https://iask.ai/</t>
   </si>
   <si>
-    <t>https://s5.gifyu.com/images/SjMkh.webp</t>
-  </si>
-  <si>
     <t>iAsk.Ai is an advanced, free AI search engine that empowers users to pose questions to AI and receive instant, accurate, and factual answers—all without storing user data. Functioning as a natural language-based search engine, it provides detailed and precise responses, offering a compelling alternative to ChatGPT. Utilizing technologies similar to ChatGPT, iAsk AI goes further with a finely tuned, large-scale Transformer language model optimized for natural language processing (NLP). This model is exclusively trained on reliable literature and authoritative sources, ensuring objective and unbiased answers to questions, distinguishing it from potential biases in ChatGPT.</t>
   </si>
   <si>
@@ -133,9 +112,6 @@
     <t>https://flawlessly.ai/app</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj6k0.png</t>
-  </si>
-  <si>
     <t>Flawlessly.Ai offers a seamless transformation of your text into professional-grade content within seconds. Simply paste your text into the provided box and hit the button to utilize our Free Ai Writing Checker. This innovative tool refines spelling, grammar, tone, and overall writing, generating a flawless AI-driven copy. Enhance the quality of your content effortlessly, ensuring it meets the highest standards with the efficiency of Flawlessly.Ai's advanced writing enhancement capabilities.</t>
   </si>
   <si>
@@ -145,9 +121,6 @@
     <t>https://hotpot.ai/</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj6fs.png</t>
-  </si>
-  <si>
     <t>Hotpot is your creative companion for crafting stunning graphics, images, and written content. With AI tools like the AI Art Generator, it sparks creativity and automates repetitive tasks, while user-friendly templates empower individuals to effortlessly design device mockups, social media posts, marketing visuals, app icons, and various work graphics. Hotpot blends the power of artificial intelligence with intuitive editing, making it a versatile platform for unleashing creativity and streamlining the design process across a range of projects.</t>
   </si>
   <si>
@@ -160,9 +133,6 @@
     <t>https://www.craiyon.com/</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj6tf.png</t>
-  </si>
-  <si>
     <t>Craiyon, formerly DALL·E mini, is your artistic genie, bridging skill gaps in the AI art realm. As the community's favored AI art generator, it offers 9 free images per minute. Go pro for unlimited art, reduced ads, and faster generation. Craiyon brings your wildest ideas to life, be it sushi in van Gogh's style or Gandhi reimagined as a Dragon Ball Z card. From abstract creations to breathtaking landscapes, explore boundless possibilities on our evolving AI art journey. Join us as we continuously enhance our cutting-edge technology, ensuring an elevated Craiyon experience. Unleash your creativity – with Craiyon, every wish becomes an artful reality!</t>
   </si>
   <si>
@@ -172,9 +142,6 @@
     <t>https://www.gplvault.com/</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/SjfDb.png</t>
-  </si>
-  <si>
     <t>GPL Vault is a platform providing access to premium WordPress themes and plugins under the GNU General Public License. Users can download these items at a fraction of the original cost, making it a cost-effective solution for those seeking high-quality resources. The platform operates by redistributing products that are typically sold elsewhere. While it offers budget-friendly options, users should be aware of potential risks, such as lack of official support or updates, as these items may not be obtained directly from the original developers. It's crucial to weigh the benefits against the potential drawbacks when considering GPL Vault for WordPress resources.</t>
   </si>
   <si>
@@ -184,9 +151,6 @@
     <t>https://designs69.pixieset.com/webdesigns/</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/SjYN9.png</t>
-  </si>
-  <si>
     <t>Explore a captivating universe of creativity with the Web And Graphic Designs photo collection by Designs. Immerse yourself in a symphony of vibrant graphics and web designs meticulously curated to inspire awe. From sleek and modern web layouts to visually stunning graphic elements, this collection is a testament to the artistry of Designs. Elevate your projects with these visually striking images that speak volumes about innovation and design excellence.</t>
   </si>
   <si>
@@ -196,9 +160,6 @@
     <t>https://asana.com/</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj5wI.png</t>
-  </si>
-  <si>
     <t>Asana is a powerful project management tool designed to streamline collaboration and enhance productivity. It provides a user-friendly interface for teams to organize tasks, set priorities, and track project progress. With features like task assignments, due dates, and file attachments, it facilitates seamless communication and coordination among team members. Asana's customizable boards and project views offer flexibility in managing workflows, while its real-time updates ensure everyone stays on the same page. Whether you're a web or WordPress developer, web designer, or SEO professional, Asana can help you stay organized, meet deadlines, and achieve project goals efficiently.</t>
   </si>
   <si>
@@ -208,9 +169,6 @@
     <t>https://hubstaff.com/</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj5dy.png</t>
-  </si>
-  <si>
     <t>Hubstaff is a comprehensive workforce management tool tailored for enhanced productivity and team collaboration. Designed for various professionals, including web and WordPress developers, web designers, and SEO experts, Hubstaff offers time tracking, activity monitoring, and project management features. Users can effortlessly track their work hours, ensuring accurate billing and payroll processing. The application's screenshot and activity tracking tools provide insights into task progress, enhancing accountability. Additionally, Hubstaff facilitates seamless project management with features such as task assignment, file sharing, and real-time communication. Its compatibility with various platforms and integrations further enhances its utility, making it a valuable asset for teams striving for efficiency and transparency in their workflows.</t>
   </si>
   <si>
@@ -220,9 +178,6 @@
     <t>https://www.canva.com/</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/Sj5Qb.png</t>
-  </si>
-  <si>
     <t>Canva is a versatile graphic design platform catering to users, including web and WordPress developers, web designers, and SEO professionals. With an intuitive interface and a vast library of templates, Canva empowers users to effortlessly create stunning visuals, from social media graphics to presentations and marketing materials. It offers a user-friendly drag-and-drop editor, enabling easy customization of designs without the need for advanced design skills. Canva's extensive collection of images, icons, and fonts facilitates creativity, while collaborative features allow teams to work seamlessly on projects. Whether designing a website banner, social media post, or an infographic for SEO purposes, Canva provides a one-stop solution for visually appealing and professional-looking designs.</t>
   </si>
   <si>
@@ -235,7 +190,49 @@
     <t>Enhance your coding experience with our powerful AI assistant tool and AI Code Chat - the ultimate companion for programmers. With intelligent suggestions, code completion, and error detection, our tool accelerates software development. With Blackbox you get coding support, AI, intelligent automation, error detection, code completion, and programming efficiency to optimize productivity and streamline your coding workflow.</t>
   </si>
   <si>
-    <t>https://s13.gifyu.com/images/S08Tb.png</t>
+    <t>palogonew.png</t>
+  </si>
+  <si>
+    <t>chatgpt.png</t>
+  </si>
+  <si>
+    <t>lingoblocks.png</t>
+  </si>
+  <si>
+    <t>sucurinew.png</t>
+  </si>
+  <si>
+    <t>gpl.png</t>
+  </si>
+  <si>
+    <t>grammarly.png</t>
+  </si>
+  <si>
+    <t>iaskAI.webp</t>
+  </si>
+  <si>
+    <t>flawlessAi.png</t>
+  </si>
+  <si>
+    <t>hpai.png</t>
+  </si>
+  <si>
+    <t>craiyon.png</t>
+  </si>
+  <si>
+    <t>designs69.png</t>
+  </si>
+  <si>
+    <t>asana.png</t>
+  </si>
+  <si>
+    <t>hubstaff.png</t>
+  </si>
+  <si>
+    <t>canva.png</t>
+  </si>
+  <si>
+    <t>blackbox.png</t>
   </si>
 </sst>
 </file>
@@ -640,8 +637,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,283 +677,283 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3"/>
     </row>

--- a/sites.xlsx
+++ b/sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoCra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06865319-5A43-4280-8E79-1BE7C01174F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784EF27E-14C7-41F5-8AC6-29479140330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,49 +190,49 @@
     <t>Enhance your coding experience with our powerful AI assistant tool and AI Code Chat - the ultimate companion for programmers. With intelligent suggestions, code completion, and error detection, our tool accelerates software development. With Blackbox you get coding support, AI, intelligent automation, error detection, code completion, and programming efficiency to optimize productivity and streamline your coding workflow.</t>
   </si>
   <si>
-    <t>palogonew.png</t>
-  </si>
-  <si>
-    <t>chatgpt.png</t>
-  </si>
-  <si>
-    <t>lingoblocks.png</t>
-  </si>
-  <si>
-    <t>sucurinew.png</t>
-  </si>
-  <si>
-    <t>gpl.png</t>
-  </si>
-  <si>
-    <t>grammarly.png</t>
-  </si>
-  <si>
-    <t>iaskAI.webp</t>
-  </si>
-  <si>
-    <t>flawlessAi.png</t>
-  </si>
-  <si>
-    <t>hpai.png</t>
-  </si>
-  <si>
-    <t>craiyon.png</t>
-  </si>
-  <si>
-    <t>designs69.png</t>
-  </si>
-  <si>
-    <t>asana.png</t>
-  </si>
-  <si>
-    <t>hubstaff.png</t>
-  </si>
-  <si>
-    <t>canva.png</t>
-  </si>
-  <si>
-    <t>blackbox.png</t>
+    <t>img/palogonew.png</t>
+  </si>
+  <si>
+    <t>img/chatgpt.png</t>
+  </si>
+  <si>
+    <t>img/lingoblocks.png</t>
+  </si>
+  <si>
+    <t>img/sucurinew.png</t>
+  </si>
+  <si>
+    <t>img/gpl.png</t>
+  </si>
+  <si>
+    <t>img/grammarly.png</t>
+  </si>
+  <si>
+    <t>img/iaskAI.webp</t>
+  </si>
+  <si>
+    <t>img/flawlessAi.png</t>
+  </si>
+  <si>
+    <t>img/hpai.png</t>
+  </si>
+  <si>
+    <t>img/craiyon.png</t>
+  </si>
+  <si>
+    <t>img/designs69.png</t>
+  </si>
+  <si>
+    <t>img/asana.png</t>
+  </si>
+  <si>
+    <t>img/hubstaff.png</t>
+  </si>
+  <si>
+    <t>img/canva.png</t>
+  </si>
+  <si>
+    <t>img/blackbox.png</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +262,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -315,6 +323,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,7 +649,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +741,7 @@
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="5" t="s">

--- a/sites.xlsx
+++ b/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoCra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784EF27E-14C7-41F5-8AC6-29479140330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865DB2DB-59D8-4823-ACD8-56AC63D8C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>Website Name</t>
   </si>
@@ -233,6 +233,78 @@
   </si>
   <si>
     <t>img/blackbox.png</t>
+  </si>
+  <si>
+    <t>img/rm-formatter.png</t>
+  </si>
+  <si>
+    <t>https://gcb-ops.github.io/gcb-house/rm-formatter</t>
+  </si>
+  <si>
+    <t>Report Message Formatter</t>
+  </si>
+  <si>
+    <t>Streamline client communication with our Report Message Formatter. Easily format and customize report messages for clear and professional communication, enhancing client engagement and understanding.</t>
+  </si>
+  <si>
+    <t>DeepAI.org is a website that provides various artificial intelligence tools and resources. It offers a range of AI models and APIs for tasks such as image recognition, natural language processing, and more. Users can access these tools to enhance their own applications or projects with AI capabilities. DeepAI.org aims to democratize AI and make it accessible to a wider audience.</t>
+  </si>
+  <si>
+    <t>https://deepai.org/</t>
+  </si>
+  <si>
+    <t>Deep Ai</t>
+  </si>
+  <si>
+    <t>img/deepai.png</t>
+  </si>
+  <si>
+    <t>Pexels</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/</t>
+  </si>
+  <si>
+    <t>img/pexels.png</t>
+  </si>
+  <si>
+    <t>Pexels offers a vast collection of high-quality, free-to-use stock photos and videos for personal and commercial projects. With millions of curated assets contributed by photographers and videographers worldwide, it's a go-to resource for designers, marketers, bloggers, and creatives. Their user-friendly interface and advanced search make finding the perfect image easy. Plus, Pexels Plus provides access to exclusive content and features for subscribers.</t>
+  </si>
+  <si>
+    <t>Unsplash is a leading platform offering a vast library of high-quality, free-to-use photos contributed by photographers worldwide. With millions of stunning images spanning various categories, it's a go-to resource for designers, bloggers, marketers, and creatives seeking beautiful visuals for their projects. Unsplash's intuitive search and browsing features make finding the perfect photo effortless, while their commitment to quality ensures every image meets high standards. Whether you need nature landscapes, urban scenes, or abstract backgrounds, Unsplash has you covered.</t>
+  </si>
+  <si>
+    <t>img/unsplash.png</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/</t>
+  </si>
+  <si>
+    <t>Unsplash</t>
+  </si>
+  <si>
+    <t>Freepik is a popular platform offering millions of high-quality graphic resources, including vectors, icons, illustrations, and photos, all available for free and premium use. With a vast library curated by talented designers, it's a go-to source for creatives, marketers, and businesses seeking visually appealing assets for their projects. Freepik's user-friendly interface and advanced search options make it easy to find the perfect graphic for any purpose, whether it's for web design, social media, presentations, or print materials. Additionally, their premium subscription service, Freepik Pro, provides access to exclusive content and additional features, enhancing the creative process further. Explore Freepik today and elevate your designs with stunning graphics.</t>
+  </si>
+  <si>
+    <t>https://www.freepik.com/</t>
+  </si>
+  <si>
+    <t>Freepik</t>
+  </si>
+  <si>
+    <t>img/freepik.png</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/</t>
+  </si>
+  <si>
+    <t>Pixabay</t>
+  </si>
+  <si>
+    <t>img/pixabay.png</t>
+  </si>
+  <si>
+    <t>Pixabay is a vibrant community of creatives, sharing copyright-free images and videos. All content is released under the Pixabay License, which makes them safe to use without asking for permission or giving credit to the artist - even for commercial purposes. You can copy, modify, distribute, and use the images, even for commercial purposes, all without asking for permission or giving credits to the artist.</t>
   </si>
 </sst>
 </file>
@@ -242,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +339,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,10 +376,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -328,11 +409,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -346,13 +453,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D14" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:D14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Website Link"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Banner Image Link"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Site Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Website Link" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Banner Image Link" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Site Description" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -646,10 +753,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,9 +767,10 @@
     <col min="4" max="4" width="62.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,7 +788,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -698,7 +806,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -716,7 +824,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -734,7 +842,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -752,7 +860,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -770,7 +878,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -788,7 +896,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -806,7 +914,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -824,7 +932,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -842,7 +950,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -860,7 +968,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -878,7 +986,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -896,7 +1004,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -914,7 +1022,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -932,7 +1040,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -950,7 +1058,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -968,26 +1076,122 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+    <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
+    <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{FC0EC58C-858C-40BA-B202-184EB927100E}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{A89256F9-0192-4A5E-9F01-2D42FD9B174D}"/>
+    <hyperlink ref="B20" r:id="rId3" xr:uid="{032435AA-3196-408C-8B20-CD8ADC0AAAB6}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{6CCEABC6-2402-4BE6-904F-E10E3B236E2C}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{5DB36912-6ECA-42FA-9448-86F6761EB7BA}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{448C2597-5003-4BAF-B2FF-DF9E4A9D6109}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sites.xlsx
+++ b/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoCra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865DB2DB-59D8-4823-ACD8-56AC63D8C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A2F1B5-3EC8-4B97-84D6-F0B4729B2D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
   <si>
     <t>Website Name</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Pixabay is a vibrant community of creatives, sharing copyright-free images and videos. All content is released under the Pixabay License, which makes them safe to use without asking for permission or giving credit to the artist - even for commercial purposes. You can copy, modify, distribute, and use the images, even for commercial purposes, all without asking for permission or giving credits to the artist.</t>
+  </si>
+  <si>
+    <t>img/webarchive.png</t>
   </si>
 </sst>
 </file>
@@ -453,13 +456,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D14" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:D14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Website Link" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Banner Image Link" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Site Description" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Website Link" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Banner Image Link" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Site Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -755,8 +758,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>
